--- a/Assets/Designs/General/Level2D.xlsx
+++ b/Assets/Designs/General/Level2D.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Next</t>
-  </si>
-  <si>
-    <t>Unlock</t>
   </si>
   <si>
     <t>Complete</t>
@@ -1244,22 +1241,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="32.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="36.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="47.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="33.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="9.33333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,122 +1274,104 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>-1</v>
       </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>-1</v>
       </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6">
         <v>-1</v>
       </c>
     </row>

--- a/Assets/Designs/General/Level2D.xlsx
+++ b/Assets/Designs/General/Level2D.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -34,6 +34,12 @@
     <t>Complete</t>
   </si>
   <si>
+    <t>TimeLimit</t>
+  </si>
+  <si>
+    <t>ScoreGoal</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -41,6 +47,9 @@
   </si>
   <si>
     <t>Enums.LEVEL_TYPE</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>Platformer_1</t>
@@ -701,12 +710,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1241,21 +1253,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="32.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="36.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="47.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="33.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="17.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,105 +1289,141 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>8</v>
       </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
       <c r="F4">
         <v>-1</v>
       </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>-1</v>
       </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>60</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Level2D.xlsx
+++ b/Assets/Designs/General/Level2D.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -28,16 +28,22 @@
     <t>Type</t>
   </si>
   <si>
+    <t>GroupID</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>TimeLimit</t>
+  </si>
+  <si>
+    <t>ScoreGoal</t>
+  </si>
+  <si>
     <t>Next</t>
   </si>
   <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>TimeLimit</t>
-  </si>
-  <si>
-    <t>ScoreGoal</t>
+    <t>Score</t>
   </si>
   <si>
     <t>int</t>
@@ -52,6 +58,9 @@
     <t>float</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>Platformer_1</t>
   </si>
   <si>
@@ -64,6 +73,9 @@
     <t>AudienceLevel</t>
   </si>
   <si>
+    <t>2,30,3,20,4,25,5,16,6,17,7,18,8,19,9,12,10,10,11,6,12,7,13,5,14,7,15,8,16,7</t>
+  </si>
+  <si>
     <t>Track_1</t>
   </si>
   <si>
@@ -89,6 +101,9 @@
   </si>
   <si>
     <t>Enums.LEVEL_TYPE.Shooter</t>
+  </si>
+  <si>
+    <t>Shooter_2</t>
   </si>
 </sst>
 </file>
@@ -710,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,6 +733,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1253,24 +1274,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="32.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="36.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="47.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="33.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="27.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="16.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="17.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="23.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="76.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1295,48 +1318,60 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -1347,22 +1382,28 @@
       <c r="H3">
         <v>-1</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -1373,22 +1414,28 @@
       <c r="H4">
         <v>-1</v>
       </c>
+      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -1399,22 +1446,28 @@
       <c r="H5">
         <v>-1</v>
       </c>
+      <c r="I5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -1424,6 +1477,44 @@
       </c>
       <c r="H6">
         <v>30</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Level2D.xlsx
+++ b/Assets/Designs/General/Level2D.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>Shooter_2</t>
+  </si>
+  <si>
+    <t>Shooter_3</t>
+  </si>
+  <si>
+    <t>Shooter_4</t>
+  </si>
+  <si>
+    <t>Shooter_5</t>
   </si>
 </sst>
 </file>
@@ -725,15 +734,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1274,13 +1280,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="36.3333333333333" customWidth="1"/>
@@ -1318,10 +1324,10 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1350,10 +1356,10 @@
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1382,7 +1388,7 @@
       <c r="H3">
         <v>-1</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="s">
@@ -1414,7 +1420,7 @@
       <c r="H4">
         <v>-1</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J4" t="s">
@@ -1446,7 +1452,7 @@
       <c r="H5">
         <v>-1</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J5" t="s">
@@ -1478,7 +1484,7 @@
       <c r="H6">
         <v>30</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J6" t="s">
@@ -1510,10 +1516,106 @@
       <c r="H7">
         <v>30</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>60</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>60</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Assets/Designs/General/Level2D.xlsx
+++ b/Assets/Designs/General/Level2D.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="Level2D" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -28,16 +41,22 @@
     <t>Type</t>
   </si>
   <si>
+    <t>TypeText</t>
+  </si>
+  <si>
     <t>GroupID</t>
   </si>
   <si>
-    <t>Complete</t>
-  </si>
-  <si>
     <t>TimeLimit</t>
   </si>
   <si>
-    <t>ScoreGoal</t>
+    <t>Hints</t>
+  </si>
+  <si>
+    <t>IntroText</t>
+  </si>
+  <si>
+    <t>IconPath</t>
   </si>
   <si>
     <t>Next</t>
@@ -46,6 +65,9 @@
     <t>Score</t>
   </si>
   <si>
+    <t>TaskComplete</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -70,10 +92,13 @@
     <t>Enums.LEVEL_TYPE.Platformer</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>AudienceLevel</t>
   </si>
   <si>
-    <t>2,30,3,20,4,25,5,16,6,17,7,18,8,19,9,12,10,10,11,6,12,7,13,5,14,7,15,8,16,7</t>
+    <t>2,30,3,20,4,25,5,16,6,17,7,18,8,19,9,12,10,10,11,6,12,7,13,5,14,7,15,8,1,7</t>
   </si>
   <si>
     <t>Track_1</t>
@@ -94,7 +119,7 @@
     <t>Enums.LEVEL_TYPE.Dual</t>
   </si>
   <si>
-    <t>Shooter_1</t>
+    <t>Shooting Range - Stage 1</t>
   </si>
   <si>
     <t>ShooterLevel</t>
@@ -103,22 +128,34 @@
     <t>Enums.LEVEL_TYPE.Shooter</t>
   </si>
   <si>
-    <t>Shooter_2</t>
-  </si>
-  <si>
-    <t>Shooter_3</t>
-  </si>
-  <si>
-    <t>Shooter_4</t>
-  </si>
-  <si>
-    <t>Shooter_5</t>
+    <t>SHOOTING RANGE</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>Text_ShootingRange</t>
+  </si>
+  <si>
+    <t>Img_ShootingRange</t>
+  </si>
+  <si>
+    <t>Shooting Range - Stage 2</t>
+  </si>
+  <si>
+    <t>Shooting Range - Stage 3</t>
+  </si>
+  <si>
+    <t>Shooting Range - Stage 4</t>
+  </si>
+  <si>
+    <t>Shooting Range - Stage 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -734,7 +771,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,6 +779,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1280,10 +1323,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1292,14 +1335,18 @@
     <col min="2" max="2" width="36.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="47.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="33.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="27.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="17.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="13.1111111111111" customWidth="1"/>
     <col min="7" max="7" width="16.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="17.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="23.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="76.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="20.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="18.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="18.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="77.3333333333333" customWidth="1"/>
+    <col min="13" max="13" width="16.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1312,13 +1359,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1330,57 +1377,75 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
+    <row r="2" s="1" customFormat="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
         <v>0</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -1388,31 +1453,40 @@
       <c r="H3">
         <v>-1</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
+      <c r="I3" t="s">
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3">
+        <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
+      <c r="F4">
         <v>0</v>
-      </c>
-      <c r="F4">
-        <v>-1</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -1420,31 +1494,40 @@
       <c r="H4">
         <v>-1</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
+      <c r="I4" t="s">
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
         <v>0</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -1452,171 +1535,225 @@
       <c r="H5">
         <v>-1</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
+      <c r="I5" t="s">
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
         <v>0</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
       </c>
       <c r="G6">
         <v>60</v>
       </c>
-      <c r="H6">
-        <v>30</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>18</v>
+      <c r="H6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7">
         <v>1</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
       </c>
       <c r="G7">
         <v>60</v>
       </c>
-      <c r="H7">
-        <v>30</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>18</v>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8">
         <v>2</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
       </c>
       <c r="G8">
         <v>60</v>
       </c>
-      <c r="H8">
-        <v>30</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>18</v>
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9">
         <v>3</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
       </c>
       <c r="G9">
         <v>60</v>
       </c>
-      <c r="H9">
-        <v>30</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>18</v>
+      <c r="H9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10">
         <v>4</v>
-      </c>
-      <c r="F10">
-        <v>-1</v>
       </c>
       <c r="G10">
         <v>60</v>
       </c>
-      <c r="H10">
-        <v>30</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>18</v>
+      <c r="H10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Level2D.xlsx
+++ b/Assets/Designs/General/Level2D.xlsx
@@ -771,7 +771,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,12 +779,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1325,8 +1319,8 @@
   <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1365,7 +1359,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1377,10 +1371,10 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1406,7 +1400,7 @@
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1418,10 +1412,10 @@
       <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -1459,7 +1453,7 @@
       <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L3" t="s">
@@ -1500,7 +1494,7 @@
       <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L4" t="s">
@@ -1541,7 +1535,7 @@
       <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L5" t="s">
@@ -1573,7 +1567,7 @@
       <c r="G6">
         <v>60</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I6" t="s">
@@ -1582,14 +1576,14 @@
       <c r="J6" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1614,7 +1608,7 @@
       <c r="G7">
         <v>60</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I7" t="s">
@@ -1623,14 +1617,14 @@
       <c r="J7" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L7" t="s">
         <v>23</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1655,7 +1649,7 @@
       <c r="G8">
         <v>60</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I8" t="s">
@@ -1664,14 +1658,14 @@
       <c r="J8" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L8" t="s">
         <v>23</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1696,7 +1690,7 @@
       <c r="G9">
         <v>60</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I9" t="s">
@@ -1705,14 +1699,14 @@
       <c r="J9" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L9" t="s">
         <v>23</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1737,7 +1731,7 @@
       <c r="G10">
         <v>60</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I10" t="s">
@@ -1746,14 +1740,14 @@
       <c r="J10" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L10" t="s">
         <v>23</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Level2D.xlsx
+++ b/Assets/Designs/General/Level2D.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -95,6 +95,9 @@
     <t>None</t>
   </si>
   <si>
+    <t>-1,-1,-1</t>
+  </si>
+  <si>
     <t>AudienceLevel</t>
   </si>
   <si>
@@ -150,6 +153,24 @@
   </si>
   <si>
     <t>Shooting Range - Stage 5</t>
+  </si>
+  <si>
+    <t>Shooting Range - Stage 6</t>
+  </si>
+  <si>
+    <t>ShooterLevel_2</t>
+  </si>
+  <si>
+    <t>Shooting Range - Stage 7</t>
+  </si>
+  <si>
+    <t>ShooterLevel_3</t>
+  </si>
+  <si>
+    <t>Shooting Range - Stage 8</t>
+  </si>
+  <si>
+    <t>ShooterLevel_4</t>
   </si>
 </sst>
 </file>
@@ -771,17 +792,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1317,10 +1344,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1341,413 +1368,536 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>-1</v>
       </c>
-      <c r="H3">
-        <v>-1</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="K3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M3">
+      <c r="L3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="4">
         <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="M4" s="4">
         <v>-1</v>
-      </c>
-      <c r="H4">
-        <v>-1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>-1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="4">
         <v>-1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>60</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="J6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M6">
-        <v>9</v>
+      <c r="L6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="4">
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>60</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>60</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="K7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M7">
-        <v>9</v>
+      <c r="L7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="4">
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>60</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="J8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M8">
-        <v>9</v>
+      <c r="L8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="4">
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="4">
         <v>3</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>60</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="J9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M9">
-        <v>9</v>
+      <c r="L9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="4">
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4">
         <v>4</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>60</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>120</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L10" t="s">
+      <c r="I11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M10">
-        <v>9</v>
+      <c r="L11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>120</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>120</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="4">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Level2D.xlsx
+++ b/Assets/Designs/General/Level2D.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>ShooterLevel_4</t>
+  </si>
+  <si>
+    <t>Shooting Range - Stage 9</t>
+  </si>
+  <si>
+    <t>ShooterLevel_5</t>
   </si>
 </sst>
 </file>
@@ -1344,10 +1350,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1878,8 +1884,8 @@
       <c r="F13" s="4">
         <v>0</v>
       </c>
-      <c r="G13" s="4">
-        <v>120</v>
+      <c r="G13">
+        <v>180</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>22</v>
@@ -1897,6 +1903,47 @@
         <v>24</v>
       </c>
       <c r="M13" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>180</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="4">
         <v>-1</v>
       </c>
     </row>

--- a/Assets/Designs/General/Level2D.xlsx
+++ b/Assets/Designs/General/Level2D.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>ShooterLevel_5</t>
+  </si>
+  <si>
+    <t>Shooting Range - Stage 10</t>
+  </si>
+  <si>
+    <t>ShooterLevel_6</t>
   </si>
 </sst>
 </file>
@@ -1350,10 +1356,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1947,6 +1953,47 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>180</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="4">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Designs/General/Level2D.xlsx
+++ b/Assets/Designs/General/Level2D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="27948" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Level2D" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -62,6 +62,9 @@
     <t>Next</t>
   </si>
   <si>
+    <t>bLockCharacter</t>
+  </si>
+  <si>
     <t>Score</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
   </si>
   <si>
     <t>int[]</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>Platformer_1</t>
@@ -1356,10 +1362,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1375,11 +1381,11 @@
     <col min="9" max="9" width="20.1111111111111" customWidth="1"/>
     <col min="10" max="10" width="18.3333333333333" customWidth="1"/>
     <col min="11" max="11" width="18.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="77.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="16.7777777777778" customWidth="1"/>
+    <col min="12" max="12" width="19.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="77.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1413,69 +1419,75 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:13">
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -1484,39 +1496,42 @@
         <v>-1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="4">
+        <v>25</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -1525,39 +1540,42 @@
         <v>-1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="4">
+        <v>25</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -1566,39 +1584,42 @@
         <v>-1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="4">
+        <v>25</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -1607,39 +1628,42 @@
         <v>60</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="4">
+        <v>25</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1648,39 +1672,42 @@
         <v>60</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="4">
+        <v>25</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
@@ -1689,39 +1716,42 @@
         <v>60</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="4">
+        <v>25</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4">
         <v>3</v>
@@ -1730,39 +1760,42 @@
         <v>60</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="4">
+        <v>25</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" s="4">
         <v>4</v>
@@ -1771,39 +1804,42 @@
         <v>60</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="4">
+        <v>25</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -1812,39 +1848,42 @@
         <v>120</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="4">
+        <v>25</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -1853,39 +1892,42 @@
         <v>120</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="4">
+        <v>25</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -1894,39 +1936,42 @@
         <v>180</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="4">
+        <v>25</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1935,39 +1980,42 @@
         <v>180</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="4">
+        <v>25</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1976,21 +2024,24 @@
         <v>180</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="4">
+        <v>25</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="4">
         <v>-1</v>
       </c>
     </row>

--- a/Assets/Designs/General/Level2D.xlsx
+++ b/Assets/Designs/General/Level2D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420"/>
+    <workbookView windowWidth="30720" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Level2D" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -71,6 +71,9 @@
     <t>TaskComplete</t>
   </si>
   <si>
+    <t>BGMName</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -110,6 +113,9 @@
     <t>2,30,3,20,4,25,5,16,6,17,7,18,8,19,9,12,10,10,11,6,12,7,13,5,14,7,15,8,1,7</t>
   </si>
   <si>
+    <t>BGM REGULAR LEVEL</t>
+  </si>
+  <si>
     <t>Track_1</t>
   </si>
   <si>
@@ -167,6 +173,9 @@
     <t>ShooterLevel_2</t>
   </si>
   <si>
+    <t>BGM B1</t>
+  </si>
+  <si>
     <t>Shooting Range - Stage 7</t>
   </si>
   <si>
@@ -179,6 +188,9 @@
     <t>ShooterLevel_4</t>
   </si>
   <si>
+    <t>BGM B3</t>
+  </si>
+  <si>
     <t>Shooting Range - Stage 9</t>
   </si>
   <si>
@@ -189,6 +201,9 @@
   </si>
   <si>
     <t>ShooterLevel_6</t>
+  </si>
+  <si>
+    <t>BGM B2</t>
   </si>
 </sst>
 </file>
@@ -810,7 +825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,6 +843,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1362,30 +1380,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="6.77777777777778" customWidth="1"/>
     <col min="2" max="2" width="36.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="47.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="33.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="28.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="17.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="13.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="16.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="17.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="3.44444444444444" customWidth="1"/>
+    <col min="7" max="7" width="6.33333333333333" customWidth="1"/>
+    <col min="8" max="8" width="9.66666666666667" customWidth="1"/>
     <col min="9" max="9" width="20.1111111111111" customWidth="1"/>
     <col min="10" max="10" width="18.3333333333333" customWidth="1"/>
     <col min="11" max="11" width="18.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="19.5555555555556" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="77.7777777777778" customWidth="1"/>
+    <col min="14" max="14" width="13.1111111111111" customWidth="1"/>
+    <col min="15" max="15" width="32.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1428,66 +1448,72 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+    <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -1496,42 +1522,45 @@
         <v>-1</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" s="4">
         <v>-1</v>
       </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -1540,42 +1569,45 @@
         <v>-1</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4" s="4">
         <v>-1</v>
       </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -1584,42 +1616,45 @@
         <v>-1</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="J5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5" s="4">
         <v>-1</v>
       </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -1628,42 +1663,45 @@
         <v>60</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N6" s="4">
         <v>-1</v>
       </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1672,42 +1710,45 @@
         <v>60</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7" s="4">
         <v>-1</v>
       </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
@@ -1716,42 +1757,45 @@
         <v>60</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N8" s="4">
         <v>-1</v>
       </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9" s="4">
         <v>3</v>
@@ -1760,42 +1804,45 @@
         <v>60</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N9" s="4">
         <v>-1</v>
       </c>
+      <c r="O9" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4">
         <v>4</v>
@@ -1804,42 +1851,45 @@
         <v>60</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N10" s="4">
         <v>-1</v>
       </c>
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -1848,42 +1898,45 @@
         <v>120</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="J11" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N11" s="4">
         <v>-1</v>
       </c>
+      <c r="O11" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -1892,157 +1945,169 @@
         <v>120</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="J12" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N12" s="4">
         <v>-1</v>
       </c>
+      <c r="O12" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="6">
         <v>180</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="J13" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N13" s="4">
         <v>-1</v>
       </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
+    <row r="14" spans="1:15">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="6">
         <v>180</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="J14" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N14" s="4">
         <v>-1</v>
       </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
+    <row r="15" spans="1:15">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="6">
         <v>180</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="J15" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N15" s="4">
         <v>-1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Level2D.xlsx
+++ b/Assets/Designs/General/Level2D.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -110,7 +110,7 @@
     <t>AudienceLevel</t>
   </si>
   <si>
-    <t>2,30,3,20,4,25,5,16,6,17,7,18,8,19,9,12,10,10,11,6,12,7,13,5,14,7,15,8,1,7</t>
+    <t>0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15</t>
   </si>
   <si>
     <t>BGM REGULAR LEVEL</t>
@@ -161,6 +161,15 @@
     <t>Shooting Range - Stage 3</t>
   </si>
   <si>
+    <t>RoomALevel</t>
+  </si>
+  <si>
+    <t>150,32,144,98,105,165,30,55,65,16,45,122,68,106,72,48</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>Shooting Range - Stage 4</t>
   </si>
   <si>
@@ -204,6 +213,21 @@
   </si>
   <si>
     <t>BGM B2</t>
+  </si>
+  <si>
+    <t>Shooting Range - Stage 0</t>
+  </si>
+  <si>
+    <t>ShooterLevel_T</t>
+  </si>
+  <si>
+    <t>75,15,60,55,42,98,12,14,33,18,22,50,13,28,19,40</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>BGM B6</t>
   </si>
 </sst>
 </file>
@@ -1380,10 +1404,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1493,7 +1517,7 @@
         <v>19</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
@@ -1766,16 +1790,16 @@
         <v>41</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="4">
-        <v>-1</v>
+        <v>45</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="O8" t="s">
         <v>28</v>
@@ -1786,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>36</v>
@@ -1833,7 +1857,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>36</v>
@@ -1880,10 +1904,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>37</v>
@@ -1919,7 +1943,7 @@
         <v>-1</v>
       </c>
       <c r="O11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1927,10 +1951,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>37</v>
@@ -1966,7 +1990,7 @@
         <v>-1</v>
       </c>
       <c r="O12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1974,10 +1998,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>37</v>
@@ -2013,7 +2037,7 @@
         <v>-1</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2021,10 +2045,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>37</v>
@@ -2032,7 +2056,7 @@
       <c r="E14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <v>0</v>
       </c>
       <c r="G14" s="6">
@@ -2060,7 +2084,7 @@
         <v>-1</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2068,10 +2092,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>37</v>
@@ -2079,7 +2103,7 @@
       <c r="E15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <v>0</v>
       </c>
       <c r="G15" s="6">
@@ -2107,7 +2131,54 @@
         <v>-1</v>
       </c>
       <c r="O15" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>60</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
